--- a/public/temp/student.xlsx
+++ b/public/temp/student.xlsx
@@ -47,10 +47,6 @@
     <t>Thông tin mẹ</t>
   </si>
   <si>
-    <t>Mã HS
-(Gồm 12 chữ số,    Dạng Text)</t>
-  </si>
-  <si>
     <t>Nguyễn Văn A</t>
   </si>
   <si>
@@ -176,6 +172,9 @@
   </si>
   <si>
     <t>0987654340</t>
+  </si>
+  <si>
+    <t>Mã định danh Bộ GD&amp;ĐT</t>
   </si>
 </sst>
 </file>
@@ -635,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
@@ -719,10 +718,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>5</v>
@@ -731,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>5</v>
@@ -748,40 +747,40 @@
         <v>123456789101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1988</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1988</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1988</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1988</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -792,40 +791,40 @@
         <v>123456789102</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="8">
         <v>1988</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="8">
         <v>1988</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -836,40 +835,40 @@
         <v>123456789103</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="8">
         <v>1988</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="8">
         <v>1988</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,40 +879,40 @@
         <v>123456789104</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="8">
         <v>1988</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="8">
         <v>1988</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -924,40 +923,40 @@
         <v>123456789105</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="8">
         <v>1988</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="8">
         <v>1988</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -968,40 +967,40 @@
         <v>123456789106</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="8">
         <v>1988</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="8">
         <v>1988</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,40 +1011,40 @@
         <v>123456789107</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1988</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1988</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="8">
         <v>1988</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,40 +1055,40 @@
         <v>123456789108</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="8">
         <v>1988</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="8">
         <v>1988</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,40 +1099,40 @@
         <v>123456789109</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="8">
         <v>1988</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="8">
         <v>1988</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,40 +1143,40 @@
         <v>123456789110</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="8">
         <v>1988</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L14" s="8">
         <v>1988</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1188,40 +1187,40 @@
         <v>123456789111</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="8">
         <v>1988</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" s="8">
         <v>1988</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,40 +1231,40 @@
         <v>123456789112</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="8">
         <v>1988</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16" s="8">
         <v>1988</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,40 +1275,40 @@
         <v>123456789113</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="8">
         <v>1988</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" s="8">
         <v>1988</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,40 +1319,40 @@
         <v>123456789114</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="8">
         <v>1988</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L18" s="8">
         <v>1988</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,40 +1363,40 @@
         <v>123456789115</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="8">
         <v>1988</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1988</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="8">
-        <v>1988</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="N19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,40 +1407,40 @@
         <v>123456789116</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="8">
         <v>1988</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L20" s="8">
         <v>1988</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,40 +1451,40 @@
         <v>123456789117</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="8">
         <v>1988</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L21" s="8">
         <v>1988</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1496,40 +1495,40 @@
         <v>123456789118</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="8">
         <v>1988</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L22" s="8">
         <v>1988</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1540,40 +1539,40 @@
         <v>123456789119</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="8">
         <v>1988</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L23" s="8">
         <v>1988</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1584,40 +1583,40 @@
         <v>123456789120</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" s="8">
         <v>1988</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L24" s="8">
         <v>1988</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/student.xlsx
+++ b/public/temp/student.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
   <si>
     <t>DANH SÁCH HỌC SINH LỚP 6A1 NĂM HỌC 2022 - 2023</t>
   </si>
@@ -69,12 +69,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>12-04-2010</t>
-  </si>
-  <si>
-    <t>12-05-2010</t>
-  </si>
-  <si>
     <t>Đào Xuyên - Đa Tốn - Gia Lâm - Hà Nội</t>
   </si>
   <si>
@@ -175,6 +169,9 @@
   </si>
   <si>
     <t>Mã định danh Bộ GD&amp;ĐT</t>
+  </si>
+  <si>
+    <t>12/04/2010</t>
   </si>
 </sst>
 </file>
@@ -634,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
@@ -689,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
@@ -718,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>5</v>
@@ -730,10 +727,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>5</v>
@@ -753,10 +750,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
@@ -765,22 +762,22 @@
         <v>1988</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L5" s="8">
         <v>1988</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,34 +794,34 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1988</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1988</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1988</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1988</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,10 +838,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
@@ -853,22 +850,22 @@
         <v>1988</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="8">
         <v>1988</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,10 +882,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -897,22 +894,22 @@
         <v>1988</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L8" s="8">
         <v>1988</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,10 +926,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
@@ -941,22 +938,22 @@
         <v>1988</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L9" s="8">
         <v>1988</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,10 +970,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>9</v>
@@ -985,22 +982,22 @@
         <v>1988</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" s="8">
         <v>1988</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,10 +1014,10 @@
         <v>12</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>9</v>
@@ -1029,22 +1026,22 @@
         <v>1988</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L11" s="8">
         <v>1988</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,34 +1058,34 @@
         <v>13</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1988</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1988</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L12" s="8">
         <v>1988</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,10 +1102,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>9</v>
@@ -1117,22 +1114,22 @@
         <v>1988</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L13" s="8">
         <v>1988</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,10 +1146,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
@@ -1161,22 +1158,22 @@
         <v>1988</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L14" s="8">
         <v>1988</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1193,10 +1190,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -1205,22 +1202,22 @@
         <v>1988</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L15" s="8">
         <v>1988</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>9</v>
@@ -1249,22 +1246,22 @@
         <v>1988</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L16" s="8">
         <v>1988</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,10 +1278,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -1293,22 +1290,22 @@
         <v>1988</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L17" s="8">
         <v>1988</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1325,10 +1322,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>9</v>
@@ -1337,22 +1334,22 @@
         <v>1988</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L18" s="8">
         <v>1988</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,10 +1366,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
@@ -1381,22 +1378,22 @@
         <v>1988</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L19" s="8">
         <v>1988</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,10 +1410,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>9</v>
@@ -1425,22 +1422,22 @@
         <v>1988</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1988</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="8">
-        <v>1988</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,10 +1454,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
@@ -1469,22 +1466,22 @@
         <v>1988</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L21" s="8">
         <v>1988</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1501,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
@@ -1513,22 +1510,22 @@
         <v>1988</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L22" s="8">
         <v>1988</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1545,10 +1542,10 @@
         <v>12</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>9</v>
@@ -1557,22 +1554,22 @@
         <v>1988</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L23" s="8">
         <v>1988</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,10 +1586,10 @@
         <v>13</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>9</v>
@@ -1601,22 +1598,22 @@
         <v>1988</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L24" s="8">
         <v>1988</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
